--- a/election_votar_data/LOHAGARA/BARAHATIA/152543/152543_com_1840_male_without_photo_104_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152543/152543_com_1840_male_without_photo_104_2025-11-24.xlsx
@@ -17324,10 +17324,14 @@
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:১৯/০৫/১৯৮৬</t>
-        </is>
-      </c>
-      <c r="G402" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G402" s="3" t="inlineStr">
+        <is>
+          <t>১৯/০৫/১৯৮৬</t>
+        </is>
+      </c>
       <c r="H402" s="5" t="inlineStr">
         <is>
           <t>কবিরের বাড়ি, হারিমুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
@@ -55750,7 +55754,7 @@
       </c>
       <c r="F1317" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১০/০৫/১৯৯২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1317" s="3" t="inlineStr">
@@ -75448,7 +75452,7 @@
       </c>
       <c r="F1786" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ১৩/০৫/২০০৭</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G1786" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/BARAHATIA/152543/152543_com_1840_male_without_photo_104_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152543/152543_com_1840_male_without_photo_104_2025-11-24.xlsx
@@ -17324,14 +17324,10 @@
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G402" s="3" t="inlineStr">
-        <is>
-          <t>১৯/০৫/১৯৮৬</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:১৯/০৫/১৯৮৬</t>
+        </is>
+      </c>
+      <c r="G402" s="3" t="inlineStr"/>
       <c r="H402" s="5" t="inlineStr">
         <is>
           <t>কবিরের বাড়ি, হারিমুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
@@ -55754,7 +55750,7 @@
       </c>
       <c r="F1317" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০৫/১৯৯২</t>
         </is>
       </c>
       <c r="G1317" s="3" t="inlineStr">
@@ -75452,7 +75448,7 @@
       </c>
       <c r="F1786" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ: ১৩/০৫/২০০৭</t>
         </is>
       </c>
       <c r="G1786" s="3" t="inlineStr">
